--- a/data/tipper_schedule.xlsx
+++ b/data/tipper_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Co Admin\Desktop\python\Movementv1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE499F21-3DAA-456E-96C9-CFACC77323F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B395B6-D881-4060-B7F8-59716A0BBC8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipper" sheetId="1" r:id="rId1"/>
@@ -28,18 +28,12 @@
     <t>driver</t>
   </si>
   <si>
-    <t>current_location</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
     <t>remarks</t>
   </si>
   <si>
-    <t>last_updated</t>
-  </si>
-  <si>
     <t>Busy</t>
   </si>
   <si>
@@ -155,6 +149,12 @@
   </si>
   <si>
     <t>truck_id</t>
+  </si>
+  <si>
+    <t>last_update</t>
+  </si>
+  <si>
+    <t>location</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1004,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,7 +1017,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1026,176 +1026,176 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
